--- a/06-arquivos-excel/aula-segmentacao.xlsx
+++ b/06-arquivos-excel/aula-segmentacao.xlsx
@@ -1,24 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Google Drive\Curso_Excel\06 Tabelas e filtros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/felipe_pereira3_prestserv_petrobras_com_br/Documents/Documentos/GitHub/excel-basico/06-arquivos-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F869785-FAA8-48F6-83CB-A297C5658BD5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{6F869785-FAA8-48F6-83CB-A297C5658BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A4F1B0-490C-4AD5-9748-8D23646E2676}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{F2539487-D21A-4125-A214-C7D3564D8767}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2539487-D21A-4125-A214-C7D3564D8767}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Ano">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId2"/>
+        <x14:slicerCache r:id="rId3"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -132,8 +156,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -180,13 +204,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -205,7 +223,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -232,6 +250,12 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -245,15 +269,214 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Ano">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45B1395-F90A-AFBA-FF80-050310C11EC1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ano"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8131175" y="6350"/>
+              <a:ext cx="1828800" cy="2527300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A38763-B427-E38A-5F3D-10E49E3712DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10045700" y="9525"/>
+              <a:ext cx="1831975" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Ano" xr10:uid="{20F7742E-7F81-4F62-AF8D-6269394EF59C}" sourceName="Ano">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{3F099BB5-A6BE-462A-BB5C-A61E59EBD9FE}" sourceName="Vendedor">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Ano" xr10:uid="{7CE5F729-8384-4DA8-ADAF-54C54499946E}" cache="SegmentaçãodeDados_Ano" caption="Ano" rowHeight="241300"/>
+  <slicer name="Vendedor" xr10:uid="{26CE4CC9-6B7C-4480-9FF0-8AFD661ADC67}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{250E7C4C-A644-466B-B8CC-FD01446EE6BA}" name="Tabela1" displayName="Tabela1" ref="A1:F274" totalsRowCount="1">
-  <autoFilter ref="A1:F273" xr:uid="{85C7D6E6-F346-4FE1-B1A4-FD26EAD91A4E}"/>
+  <autoFilter ref="A1:F273" xr:uid="{85C7D6E6-F346-4FE1-B1A4-FD26EAD91A4E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2016"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Anakin"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{417B3A2B-613C-43B2-B366-BF3266F489F4}" name="Mês" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5C4444CE-DB72-4E47-B1B9-75DB797A6B05}" name="Ano" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{417B3A2B-613C-43B2-B366-BF3266F489F4}" name="Mês" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5C4444CE-DB72-4E47-B1B9-75DB797A6B05}" name="Ano" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="3" xr3:uid="{FC3E5E7E-CF5B-455A-AFD6-D39796C09148}" name="Vendedor"/>
-    <tableColumn id="4" xr3:uid="{E8D86D74-1B11-446D-98B1-C27110111479}" name="Carteira de Clientes" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" xr3:uid="{5F34ACDF-1AD3-4E7A-A0FF-36D87DC06971}" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{E8D86D74-1B11-446D-98B1-C27110111479}" name="Carteira de Clientes" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" xr3:uid="{5F34ACDF-1AD3-4E7A-A0FF-36D87DC06971}" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda"/>
     <tableColumn id="6" xr3:uid="{BCC22D3A-E48D-4085-BC03-26165DB23202}" name="Venda Média por Cliente" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[[#This Row],[Valor Vendido]]/Tabela1[[#This Row],[Carteira de Clientes]]</calculatedColumnFormula>
     </tableColumn>
@@ -562,19 +785,19 @@
   <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G277" sqref="G277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -594,7 +817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -615,7 +838,7 @@
         <v>635.41666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -636,7 +859,7 @@
         <v>271.52542372881356</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -657,7 +880,7 @@
         <v>128.03896103896105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -678,7 +901,7 @@
         <v>307.72727272727275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -699,7 +922,7 @@
         <v>423.35294117647061</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -720,7 +943,7 @@
         <v>115.74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -741,7 +964,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -762,7 +985,7 @@
         <v>147.07954545454547</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -783,7 +1006,7 @@
         <v>84.888888888888886</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -804,7 +1027,7 @@
         <v>252.48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -825,7 +1048,7 @@
         <v>293.48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -846,7 +1069,7 @@
         <v>178.19718309859155</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -867,7 +1090,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -888,7 +1111,7 @@
         <v>213.10714285714286</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -909,7 +1132,7 @@
         <v>339.69387755102042</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -930,7 +1153,7 @@
         <v>340.13333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -951,7 +1174,7 @@
         <v>121.88095238095238</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -972,7 +1195,7 @@
         <v>311.43137254901961</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -993,7 +1216,7 @@
         <v>320.1875</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>3</v>
       </c>
@@ -1014,7 +1237,7 @@
         <v>843.96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>3</v>
       </c>
@@ -1035,7 +1258,7 @@
         <v>319.04545454545456</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -1056,7 +1279,7 @@
         <v>328.28947368421052</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>3</v>
       </c>
@@ -1077,7 +1300,7 @@
         <v>195.23611111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -1098,7 +1321,7 @@
         <v>191.50561797752809</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -1119,7 +1342,7 @@
         <v>400.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -1140,7 +1363,7 @@
         <v>169.36842105263159</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>4</v>
       </c>
@@ -1161,7 +1384,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -1182,7 +1405,7 @@
         <v>271.66037735849056</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>4</v>
       </c>
@@ -1203,7 +1426,7 @@
         <v>116.3010752688172</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>4</v>
       </c>
@@ -1224,7 +1447,7 @@
         <v>219.3953488372093</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>4</v>
       </c>
@@ -1245,7 +1468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1266,7 +1489,7 @@
         <v>134.20652173913044</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>5</v>
       </c>
@@ -1287,7 +1510,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>5</v>
       </c>
@@ -1308,7 +1531,7 @@
         <v>471.55555555555554</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>5</v>
       </c>
@@ -1329,7 +1552,7 @@
         <v>567.05555555555554</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>5</v>
       </c>
@@ -1350,7 +1573,7 @@
         <v>149.31958762886597</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>5</v>
       </c>
@@ -1371,7 +1594,7 @@
         <v>86.928571428571431</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>5</v>
       </c>
@@ -1392,7 +1615,7 @@
         <v>426.88461538461536</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>5</v>
       </c>
@@ -1413,7 +1636,7 @@
         <v>318.61538461538464</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -1434,7 +1657,7 @@
         <v>101.07894736842105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>6</v>
       </c>
@@ -1455,7 +1678,7 @@
         <v>163.65384615384616</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>6</v>
       </c>
@@ -1476,7 +1699,7 @@
         <v>301.48611111111109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>6</v>
       </c>
@@ -1497,7 +1720,7 @@
         <v>131.20588235294119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>6</v>
       </c>
@@ -1518,7 +1741,7 @@
         <v>167.09876543209876</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>6</v>
       </c>
@@ -1539,7 +1762,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>6</v>
       </c>
@@ -1560,7 +1783,7 @@
         <v>374.85714285714283</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>6</v>
       </c>
@@ -1581,7 +1804,7 @@
         <v>143.66666666666666</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>6</v>
       </c>
@@ -1602,7 +1825,7 @@
         <v>657.16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>7</v>
       </c>
@@ -1623,7 +1846,7 @@
         <v>222.11111111111111</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>7</v>
       </c>
@@ -1644,7 +1867,7 @@
         <v>146.08955223880596</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>7</v>
       </c>
@@ -1665,7 +1888,7 @@
         <v>177.46774193548387</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>7</v>
       </c>
@@ -1686,7 +1909,7 @@
         <v>856.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>7</v>
       </c>
@@ -1707,7 +1930,7 @@
         <v>296.81132075471697</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>7</v>
       </c>
@@ -1728,7 +1951,7 @@
         <v>167.04411764705881</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>7</v>
       </c>
@@ -1749,7 +1972,7 @@
         <v>159.42857142857142</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>7</v>
       </c>
@@ -1770,7 +1993,7 @@
         <v>65.224999999999994</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>8</v>
       </c>
@@ -1791,7 +2014,7 @@
         <v>141.92857142857142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>8</v>
       </c>
@@ -1812,7 +2035,7 @@
         <v>126.24444444444444</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>8</v>
       </c>
@@ -1833,7 +2056,7 @@
         <v>202.3111111111111</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>8</v>
       </c>
@@ -1854,7 +2077,7 @@
         <v>50.62</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>8</v>
       </c>
@@ -1875,7 +2098,7 @@
         <v>257.15476190476193</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>8</v>
       </c>
@@ -1896,7 +2119,7 @@
         <v>250.08333333333334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>8</v>
       </c>
@@ -1917,7 +2140,7 @@
         <v>359.38461538461536</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>8</v>
       </c>
@@ -1938,7 +2161,7 @@
         <v>401.90384615384613</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>9</v>
       </c>
@@ -1959,7 +2182,7 @@
         <v>221.84</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>9</v>
       </c>
@@ -1980,7 +2203,7 @@
         <v>444.02857142857141</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>9</v>
       </c>
@@ -2001,7 +2224,7 @@
         <v>136.37373737373738</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>9</v>
       </c>
@@ -2022,7 +2245,7 @@
         <v>892.60869565217388</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>9</v>
       </c>
@@ -2043,7 +2266,7 @@
         <v>200.875</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>9</v>
       </c>
@@ -2064,7 +2287,7 @@
         <v>93.887755102040813</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>9</v>
       </c>
@@ -2085,7 +2308,7 @@
         <v>124.23333333333333</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>9</v>
       </c>
@@ -2106,7 +2329,7 @@
         <v>158.72619047619048</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>10</v>
       </c>
@@ -2127,7 +2350,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>10</v>
       </c>
@@ -2148,7 +2371,7 @@
         <v>451.19230769230768</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>10</v>
       </c>
@@ -2169,7 +2392,7 @@
         <v>148.12087912087912</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>10</v>
       </c>
@@ -2190,7 +2413,7 @@
         <v>121.11363636363636</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>10</v>
       </c>
@@ -2211,7 +2434,7 @@
         <v>158.22972972972974</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>10</v>
       </c>
@@ -2232,7 +2455,7 @@
         <v>374.13333333333333</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>10</v>
       </c>
@@ -2253,7 +2476,7 @@
         <v>363.75471698113205</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>10</v>
       </c>
@@ -2274,7 +2497,7 @@
         <v>238.64150943396226</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>11</v>
       </c>
@@ -2295,7 +2518,7 @@
         <v>220.62222222222223</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>11</v>
       </c>
@@ -2316,7 +2539,7 @@
         <v>339.45614035087721</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>11</v>
       </c>
@@ -2337,7 +2560,7 @@
         <v>430.06818181818181</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>11</v>
       </c>
@@ -2358,7 +2581,7 @@
         <v>68.467391304347828</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>11</v>
       </c>
@@ -2379,7 +2602,7 @@
         <v>270.69230769230768</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>11</v>
       </c>
@@ -2400,7 +2623,7 @@
         <v>247.83333333333334</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>11</v>
       </c>
@@ -2421,7 +2644,7 @@
         <v>622.39285714285711</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>11</v>
       </c>
@@ -2442,7 +2665,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>12</v>
       </c>
@@ -2463,7 +2686,7 @@
         <v>172.2340425531915</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>12</v>
       </c>
@@ -2484,7 +2707,7 @@
         <v>335.40322580645159</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>12</v>
       </c>
@@ -2505,7 +2728,7 @@
         <v>282.97727272727275</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>12</v>
       </c>
@@ -2526,7 +2749,7 @@
         <v>257.75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>12</v>
       </c>
@@ -2547,7 +2770,7 @@
         <v>187.62121212121212</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>12</v>
       </c>
@@ -2568,7 +2791,7 @@
         <v>287.86885245901641</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>12</v>
       </c>
@@ -2589,7 +2812,7 @@
         <v>533.46428571428567</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>12</v>
       </c>
@@ -2610,7 +2833,7 @@
         <v>252.86746987951807</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>1</v>
       </c>
@@ -2631,7 +2854,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>1</v>
       </c>
@@ -2652,7 +2875,7 @@
         <v>383.40816326530614</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>1</v>
       </c>
@@ -2673,7 +2896,7 @@
         <v>88.666666666666671</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -2694,7 +2917,7 @@
         <v>260.13333333333333</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -2715,7 +2938,7 @@
         <v>469.22857142857146</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -2736,7 +2959,7 @@
         <v>195.28358208955223</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -2757,7 +2980,7 @@
         <v>672.36666666666667</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -2778,7 +3001,7 @@
         <v>319.24615384615385</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>2</v>
       </c>
@@ -2799,7 +3022,7 @@
         <v>112.88372093023256</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>2</v>
       </c>
@@ -2820,7 +3043,7 @@
         <v>179.7608695652174</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>2</v>
       </c>
@@ -2841,7 +3064,7 @@
         <v>139.29268292682926</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>2</v>
       </c>
@@ -2862,7 +3085,7 @@
         <v>247.77777777777777</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>2</v>
       </c>
@@ -2883,7 +3106,7 @@
         <v>155.04255319148936</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>2</v>
       </c>
@@ -2904,7 +3127,7 @@
         <v>292.32142857142856</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>2</v>
       </c>
@@ -2925,7 +3148,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>2</v>
       </c>
@@ -2946,7 +3169,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>3</v>
       </c>
@@ -2967,7 +3190,7 @@
         <v>233.46428571428572</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>3</v>
       </c>
@@ -2988,7 +3211,7 @@
         <v>288.77142857142854</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>3</v>
       </c>
@@ -3009,7 +3232,7 @@
         <v>486.14634146341461</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>3</v>
       </c>
@@ -3030,7 +3253,7 @@
         <v>210.58823529411765</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>3</v>
       </c>
@@ -3051,7 +3274,7 @@
         <v>79.329268292682926</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>3</v>
       </c>
@@ -3072,7 +3295,7 @@
         <v>369.11538461538464</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>3</v>
       </c>
@@ -3093,7 +3316,7 @@
         <v>321.27777777777777</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>3</v>
       </c>
@@ -3114,7 +3337,7 @@
         <v>217.98113207547169</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>4</v>
       </c>
@@ -3135,7 +3358,7 @@
         <v>283.15384615384613</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>4</v>
       </c>
@@ -3156,7 +3379,7 @@
         <v>191.64444444444445</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>4</v>
       </c>
@@ -3177,7 +3400,7 @@
         <v>287.02127659574467</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>4</v>
       </c>
@@ -3198,7 +3421,7 @@
         <v>130.89705882352942</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>4</v>
       </c>
@@ -3219,7 +3442,7 @@
         <v>305.51612903225805</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>4</v>
       </c>
@@ -3240,7 +3463,7 @@
         <v>159.21951219512195</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>4</v>
       </c>
@@ -3261,7 +3484,7 @@
         <v>206.71428571428572</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>4</v>
       </c>
@@ -3282,7 +3505,7 @@
         <v>224.8125</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>5</v>
       </c>
@@ -3303,7 +3526,7 @@
         <v>309.06666666666666</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>5</v>
       </c>
@@ -3324,7 +3547,7 @@
         <v>111.83333333333333</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>5</v>
       </c>
@@ -3345,7 +3568,7 @@
         <v>237.47222222222223</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>5</v>
       </c>
@@ -3366,7 +3589,7 @@
         <v>168.02469135802468</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>5</v>
       </c>
@@ -3387,7 +3610,7 @@
         <v>332.73846153846154</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>5</v>
       </c>
@@ -3408,7 +3631,7 @@
         <v>775.04347826086962</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>5</v>
       </c>
@@ -3429,7 +3652,7 @@
         <v>273.57746478873241</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>5</v>
       </c>
@@ -3450,7 +3673,7 @@
         <v>182.96590909090909</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>6</v>
       </c>
@@ -3471,7 +3694,7 @@
         <v>592.69230769230774</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>6</v>
       </c>
@@ -3492,7 +3715,7 @@
         <v>620.13793103448279</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>6</v>
       </c>
@@ -3513,7 +3736,7 @@
         <v>295.44444444444446</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>6</v>
       </c>
@@ -3534,7 +3757,7 @@
         <v>584.97142857142853</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>6</v>
       </c>
@@ -3555,7 +3778,7 @@
         <v>112.05</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>6</v>
       </c>
@@ -3576,7 +3799,7 @@
         <v>508.95</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>6</v>
       </c>
@@ -3597,7 +3820,7 @@
         <v>121.14893617021276</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>6</v>
       </c>
@@ -3618,7 +3841,7 @@
         <v>176.11764705882354</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>7</v>
       </c>
@@ -3639,7 +3862,7 @@
         <v>816.08333333333337</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>7</v>
       </c>
@@ -3660,7 +3883,7 @@
         <v>281.45569620253167</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>7</v>
       </c>
@@ -3681,7 +3904,7 @@
         <v>184.7439024390244</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>7</v>
       </c>
@@ -3702,7 +3925,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>7</v>
       </c>
@@ -3723,7 +3946,7 @@
         <v>115.06493506493507</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>7</v>
       </c>
@@ -3744,7 +3967,7 @@
         <v>508.66666666666669</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>7</v>
       </c>
@@ -3765,7 +3988,7 @@
         <v>252.52631578947367</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>7</v>
       </c>
@@ -3786,7 +4009,7 @@
         <v>146.18</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>8</v>
       </c>
@@ -3807,7 +4030,7 @@
         <v>398.7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>8</v>
       </c>
@@ -3828,7 +4051,7 @@
         <v>533.59523809523807</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>8</v>
       </c>
@@ -3849,7 +4072,7 @@
         <v>392.92727272727274</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>8</v>
       </c>
@@ -3870,7 +4093,7 @@
         <v>369.25</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>8</v>
       </c>
@@ -3891,7 +4114,7 @@
         <v>193.2608695652174</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>8</v>
       </c>
@@ -3912,7 +4135,7 @@
         <v>265.463768115942</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>8</v>
       </c>
@@ -3933,7 +4156,7 @@
         <v>109.05714285714286</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>8</v>
       </c>
@@ -3954,7 +4177,7 @@
         <v>142.73863636363637</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>9</v>
       </c>
@@ -3975,7 +4198,7 @@
         <v>277.04000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>9</v>
       </c>
@@ -3996,7 +4219,7 @@
         <v>484.41935483870969</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>9</v>
       </c>
@@ -4017,7 +4240,7 @@
         <v>349.42307692307691</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>9</v>
       </c>
@@ -4038,7 +4261,7 @@
         <v>391.84444444444443</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>9</v>
       </c>
@@ -4059,7 +4282,7 @@
         <v>323.22413793103448</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>9</v>
       </c>
@@ -4080,7 +4303,7 @@
         <v>171.30612244897958</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>9</v>
       </c>
@@ -4101,7 +4324,7 @@
         <v>209.41758241758242</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>9</v>
       </c>
@@ -4122,7 +4345,7 @@
         <v>150.88297872340425</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>10</v>
       </c>
@@ -4143,7 +4366,7 @@
         <v>169.17021276595744</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>10</v>
       </c>
@@ -4164,7 +4387,7 @@
         <v>197.47761194029852</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>10</v>
       </c>
@@ -4185,7 +4408,7 @@
         <v>200.45121951219511</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>10</v>
       </c>
@@ -4206,7 +4429,7 @@
         <v>87.55</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>10</v>
       </c>
@@ -4227,7 +4450,7 @@
         <v>234.22058823529412</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>10</v>
       </c>
@@ -4248,7 +4471,7 @@
         <v>166.07692307692307</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>10</v>
       </c>
@@ -4269,7 +4492,7 @@
         <v>129.09333333333333</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>10</v>
       </c>
@@ -4290,7 +4513,7 @@
         <v>96.595238095238102</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>11</v>
       </c>
@@ -4311,7 +4534,7 @@
         <v>110.54545454545455</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>11</v>
       </c>
@@ -4332,7 +4555,7 @@
         <v>514.93548387096769</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>11</v>
       </c>
@@ -4353,7 +4576,7 @@
         <v>406.27777777777777</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>11</v>
       </c>
@@ -4374,7 +4597,7 @@
         <v>201.77777777777777</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>11</v>
       </c>
@@ -4395,7 +4618,7 @@
         <v>424.73076923076923</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>11</v>
       </c>
@@ -4416,7 +4639,7 @@
         <v>85.745762711864401</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>11</v>
       </c>
@@ -4437,7 +4660,7 @@
         <v>102.93</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>11</v>
       </c>
@@ -4458,7 +4681,7 @@
         <v>199.25</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>12</v>
       </c>
@@ -4479,7 +4702,7 @@
         <v>112.22727272727273</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>12</v>
       </c>
@@ -4500,7 +4723,7 @@
         <v>498.85714285714283</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>12</v>
       </c>
@@ -4521,7 +4744,7 @@
         <v>157.89247311827958</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>12</v>
       </c>
@@ -4542,7 +4765,7 @@
         <v>78.205128205128204</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>12</v>
       </c>
@@ -4563,7 +4786,7 @@
         <v>505.88372093023258</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>12</v>
       </c>
@@ -4584,7 +4807,7 @@
         <v>862.60869565217388</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>12</v>
       </c>
@@ -4605,7 +4828,7 @@
         <v>206.59090909090909</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>12</v>
       </c>
@@ -4626,7 +4849,7 @@
         <v>201.93333333333334</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>1</v>
       </c>
@@ -4647,7 +4870,7 @@
         <v>223.8095238095238</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -4668,7 +4891,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>1</v>
       </c>
@@ -4689,7 +4912,7 @@
         <v>306.39534883720933</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -4710,7 +4933,7 @@
         <v>276.41428571428571</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>1</v>
       </c>
@@ -4731,7 +4954,7 @@
         <v>175.92857142857142</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -4752,7 +4975,7 @@
         <v>289.2093023255814</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
         <v>1</v>
       </c>
@@ -4773,7 +4996,7 @@
         <v>191.72093023255815</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>1</v>
       </c>
@@ -4794,7 +5017,7 @@
         <v>315.45238095238096</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>2</v>
       </c>
@@ -4815,7 +5038,7 @@
         <v>285.80769230769232</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>2</v>
       </c>
@@ -4836,7 +5059,7 @@
         <v>234.45714285714286</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>2</v>
       </c>
@@ -4857,7 +5080,7 @@
         <v>190.57575757575756</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>2</v>
       </c>
@@ -4878,7 +5101,7 @@
         <v>519.3125</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>2</v>
       </c>
@@ -4899,7 +5122,7 @@
         <v>720.79310344827582</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>2</v>
       </c>
@@ -4920,7 +5143,7 @@
         <v>151.55102040816325</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
         <v>2</v>
       </c>
@@ -4941,7 +5164,7 @@
         <v>563.94285714285718</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>2</v>
       </c>
@@ -4962,7 +5185,7 @@
         <v>106.28205128205128</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>3</v>
       </c>
@@ -4983,7 +5206,7 @@
         <v>179.29411764705881</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>3</v>
       </c>
@@ -5004,7 +5227,7 @@
         <v>127.98550724637681</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
         <v>3</v>
       </c>
@@ -5025,7 +5248,7 @@
         <v>248.14285714285714</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
         <v>3</v>
       </c>
@@ -5046,7 +5269,7 @@
         <v>84.031578947368416</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>3</v>
       </c>
@@ -5067,7 +5290,7 @@
         <v>224.91071428571428</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>3</v>
       </c>
@@ -5088,7 +5311,7 @@
         <v>319.59523809523807</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
         <v>3</v>
       </c>
@@ -5109,7 +5332,7 @@
         <v>101.04494382022472</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
         <v>3</v>
       </c>
@@ -5130,7 +5353,7 @@
         <v>307.04347826086956</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
         <v>4</v>
       </c>
@@ -5151,7 +5374,7 @@
         <v>333.76190476190476</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>4</v>
       </c>
@@ -5172,7 +5395,7 @@
         <v>103.33928571428571</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
         <v>4</v>
       </c>
@@ -5193,7 +5416,7 @@
         <v>184.6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>4</v>
       </c>
@@ -5214,7 +5437,7 @@
         <v>91.07692307692308</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
         <v>4</v>
       </c>
@@ -5235,7 +5458,7 @@
         <v>367.47169811320754</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>4</v>
       </c>
@@ -5256,7 +5479,7 @@
         <v>167.6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
         <v>4</v>
       </c>
@@ -5277,7 +5500,7 @@
         <v>149.41489361702128</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
         <v>4</v>
       </c>
@@ -5298,7 +5521,7 @@
         <v>313.71830985915494</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
         <v>5</v>
       </c>
@@ -5319,7 +5542,7 @@
         <v>284.17857142857144</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
         <v>5</v>
       </c>
@@ -5340,7 +5563,7 @@
         <v>275.84848484848487</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
         <v>5</v>
       </c>
@@ -5361,7 +5584,7 @@
         <v>229.03174603174602</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
         <v>5</v>
       </c>
@@ -5382,7 +5605,7 @@
         <v>194.70652173913044</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
         <v>5</v>
       </c>
@@ -5403,7 +5626,7 @@
         <v>271.58208955223881</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
         <v>5</v>
       </c>
@@ -5424,7 +5647,7 @@
         <v>236.44444444444446</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
         <v>5</v>
       </c>
@@ -5445,7 +5668,7 @@
         <v>172.47297297297297</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
         <v>5</v>
       </c>
@@ -5466,7 +5689,7 @@
         <v>110.0625</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
         <v>6</v>
       </c>
@@ -5487,7 +5710,7 @@
         <v>248.27272727272728</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
         <v>6</v>
       </c>
@@ -5508,7 +5731,7 @@
         <v>486.65909090909093</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
         <v>6</v>
       </c>
@@ -5529,7 +5752,7 @@
         <v>345.91304347826087</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
         <v>6</v>
       </c>
@@ -5550,7 +5773,7 @@
         <v>285.42857142857144</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
         <v>6</v>
       </c>
@@ -5571,7 +5794,7 @@
         <v>248.71212121212122</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>6</v>
       </c>
@@ -5592,7 +5815,7 @@
         <v>418.70212765957444</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
         <v>6</v>
       </c>
@@ -5613,7 +5836,7 @@
         <v>267.16666666666669</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>6</v>
       </c>
@@ -5634,7 +5857,7 @@
         <v>195.83333333333334</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
         <v>7</v>
       </c>
@@ -5655,7 +5878,7 @@
         <v>292.72000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
         <v>7</v>
       </c>
@@ -5676,7 +5899,7 @@
         <v>319.66666666666669</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
         <v>7</v>
       </c>
@@ -5697,7 +5920,7 @@
         <v>105.83908045977012</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
         <v>7</v>
       </c>
@@ -5718,7 +5941,7 @@
         <v>262.89743589743591</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
         <v>7</v>
       </c>
@@ -5739,7 +5962,7 @@
         <v>137.7948717948718</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
         <v>7</v>
       </c>
@@ -5760,7 +5983,7 @@
         <v>201.2987012987013</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
         <v>7</v>
       </c>
@@ -5781,7 +6004,7 @@
         <v>164.48275862068965</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
         <v>7</v>
       </c>
@@ -5802,7 +6025,7 @@
         <v>83.348484848484844</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
         <v>8</v>
       </c>
@@ -5823,7 +6046,7 @@
         <v>314.54838709677421</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
         <v>8</v>
       </c>
@@ -5844,7 +6067,7 @@
         <v>162.44594594594594</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
         <v>8</v>
       </c>
@@ -5865,7 +6088,7 @@
         <v>215.33333333333334</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
         <v>8</v>
       </c>
@@ -5886,7 +6109,7 @@
         <v>379.86666666666667</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
         <v>8</v>
       </c>
@@ -5907,7 +6130,7 @@
         <v>361.36</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
         <v>8</v>
       </c>
@@ -5928,7 +6151,7 @@
         <v>225.63736263736263</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
         <v>8</v>
       </c>
@@ -5949,7 +6172,7 @@
         <v>367.06521739130437</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
         <v>8</v>
       </c>
@@ -5970,7 +6193,7 @@
         <v>361.25862068965517</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
         <v>9</v>
       </c>
@@ -5991,7 +6214,7 @@
         <v>92.155555555555551</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
         <v>9</v>
       </c>
@@ -6012,7 +6235,7 @@
         <v>321.05660377358492</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
         <v>9</v>
       </c>
@@ -6033,7 +6256,7 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>9</v>
       </c>
@@ -6054,7 +6277,7 @@
         <v>554.74285714285713</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
         <v>9</v>
       </c>
@@ -6075,7 +6298,7 @@
         <v>267.29268292682929</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>9</v>
       </c>
@@ -6096,7 +6319,7 @@
         <v>255.52173913043478</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
         <v>9</v>
       </c>
@@ -6117,7 +6340,7 @@
         <v>182.28358208955223</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
         <v>9</v>
       </c>
@@ -6138,7 +6361,7 @@
         <v>292.38235294117646</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
         <v>10</v>
       </c>
@@ -6159,7 +6382,7 @@
         <v>171.77500000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
         <v>10</v>
       </c>
@@ -6180,7 +6403,7 @@
         <v>257.40740740740739</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
         <v>10</v>
       </c>
@@ -6201,7 +6424,7 @@
         <v>199.83695652173913</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
         <v>10</v>
       </c>
@@ -6222,7 +6445,7 @@
         <v>361.63636363636363</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
         <v>10</v>
       </c>
@@ -6243,7 +6466,7 @@
         <v>89.615384615384613</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
         <v>10</v>
       </c>
@@ -6264,7 +6487,7 @@
         <v>160.07291666666666</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
         <v>10</v>
       </c>
@@ -6285,7 +6508,7 @@
         <v>222.03157894736842</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
         <v>10</v>
       </c>
@@ -6306,25 +6529,36 @@
         <v>273.96341463414632</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B274" s="5"/>
       <c r="D274" s="6">
         <f>SUBTOTAL(109,Tabela1[Carteira de Clientes])</f>
-        <v>15428</v>
+        <v>607</v>
       </c>
       <c r="E274" s="7">
         <f>SUBTOTAL(109,Tabela1[Valor Vendido])</f>
-        <v>3567273</v>
+        <v>176775</v>
       </c>
       <c r="F274"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>